--- a/02-intermediate/00-projects/33-OLXRealStateFinderBot/aptos.xlsx
+++ b/02-intermediate/00-projects/33-OLXRealStateFinderBot/aptos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="139">
   <si>
     <t>titles</t>
   </si>
@@ -25,15 +25,138 @@
     <t>links</t>
   </si>
   <si>
+    <t>Lindo 2Q + escritorio montado melhor ponto Freguesia</t>
+  </si>
+  <si>
+    <t>Apartamento com 3 dormitórios para alugar, 88 m² por R$ 1.700,00/mês - Freguesia (Jacarepa</t>
+  </si>
+  <si>
+    <t>Lindo Apê 3 qts com 1 suíte - Freguesia</t>
+  </si>
+  <si>
+    <t>Apartamento - FREGUESIA (JACAREPAGUA) - R$ 1.750,00</t>
+  </si>
+  <si>
+    <t>Apartamento - BARRA DA TIJUCA - R$ 1.800,00</t>
+  </si>
+  <si>
+    <t>Beach Plus | Apartamento de 3 quartos com suíte próximo Transolímpica | Real Imóveis RJ</t>
+  </si>
+  <si>
+    <t>Cobertura Freguesia</t>
+  </si>
+  <si>
+    <t>Apartamento para alugar com 3 dormitórios cod:FRAP30081</t>
+  </si>
+  <si>
+    <t>Apartamento para alugar com 3 dormitórios em Jacarepaguá, cod:lc0183101</t>
+  </si>
+  <si>
+    <t>Excelente apartamento na Freguesia /Jacarepaguá</t>
+  </si>
+  <si>
+    <t>Alugo apartamento Freguesia</t>
+  </si>
+  <si>
+    <t>Apartamento para alugar com 3 dormitórios cod:AL376</t>
+  </si>
+  <si>
+    <t>404.3- Estrelas Full Condominium, lindo 3 quartos!</t>
+  </si>
+  <si>
+    <t>Freguesia. Lindo 3 quartos mobiliado com garagem. Perto de tudo.</t>
+  </si>
+  <si>
+    <t>Apartamento para alugar com 3 dormitórios em Jacarepaguá, Rio de janeiro cod:4159</t>
+  </si>
+  <si>
+    <t>Excelente apt. 03 quartos ( 01 suíte) - Freguesia!</t>
+  </si>
+  <si>
+    <t>Aluguel -  Apartamento com 3 quartos em Jacarepaguá</t>
+  </si>
+  <si>
+    <t>Apartamento de 3 quartos na Freguesia</t>
+  </si>
+  <si>
+    <t>Apartamento de 3 quartos mobiliado na Freguesia</t>
+  </si>
+  <si>
+    <t>Rio2 | Vista Lagoa e Lazer | 3Qtos | Armários Planejados | Andar Alto</t>
+  </si>
+  <si>
+    <t>Apartamento para alugar com 3 dormitórios cod:AL1309</t>
+  </si>
+  <si>
+    <t>Apartamento Jacarepaguá - Villas da Barra, 3 quartos (NBI 006 APP)</t>
+  </si>
+  <si>
+    <t>Apartamento para alugar com 3 dormitórios em Jacarepaguá, Rio de janeiro cod:8084</t>
+  </si>
+  <si>
+    <t>Barra da Tijuca: R$ 2.300,00</t>
+  </si>
+  <si>
+    <t>Locação 3 quartos RjzCyrela Like</t>
+  </si>
+  <si>
     <t xml:space="preserve">Apartamento 4 quartos na Freguesia Jacarepaguá Rua Araguaia </t>
   </si>
   <si>
+    <t>Apartamento para aluguel e venda na Rua Potiguara, Freguesia</t>
+  </si>
+  <si>
+    <t>Apê 3 Quartos com 1 Suíte e Varanda na Freguesia - 84m²</t>
+  </si>
+  <si>
+    <t>Rio 2 - Gênova</t>
+  </si>
+  <si>
+    <t>Raridade Aroazes / Sol da manha / Vista Parque Olimpico</t>
+  </si>
+  <si>
+    <t>Apartamento - BARRA DA TIJUCA - R$ 2.500,00</t>
+  </si>
+  <si>
+    <t>Apartamento para alugar com 3 dormitórios em Jacarepaguá, Rio de janeiro cod:MIA3AP15256</t>
+  </si>
+  <si>
+    <t>Apartamento para alugar com 3 dormitórios cod:RLAP30311</t>
+  </si>
+  <si>
+    <t>Excelente Oportunidade no Village Vert, 02 quartos.</t>
+  </si>
+  <si>
+    <t>Ressi. Union Home 3Qts 97m² Aluguel e Venda na Barra</t>
+  </si>
+  <si>
+    <t>Apartamento 3 suítes - Freguesia</t>
+  </si>
+  <si>
+    <t>Apartamento para alugar, 105 m² por R$ 2.800,00 - Freguesia (Jacarepaguá) - Rio de Janeiro</t>
+  </si>
+  <si>
+    <t>Apartamento para Locação em Rio de Janeiro, Barra da Tijuca, 3 dormitórios, 1 suíte, 2 ban</t>
+  </si>
+  <si>
     <t>Apartamento para alugar com 4 dormitórios cod:33283</t>
   </si>
   <si>
+    <t>Locação de apartamento mobiliado</t>
+  </si>
+  <si>
+    <t>cobertura duplex para locação via flamboyant</t>
+  </si>
+  <si>
     <t>Freguesia lindo apartamento 4 quartos oportunidade única</t>
   </si>
   <si>
+    <t>RG alugo ou vendo linda cobertura com 3 quartos</t>
+  </si>
+  <si>
+    <t>Vendo ou alugo apartamento no Estrelas full</t>
+  </si>
+  <si>
     <t>RG alugo ou vendo lindo cobertura com 4 quartos</t>
   </si>
   <si>
@@ -46,9 +169,39 @@
     <t>Apartamento</t>
   </si>
   <si>
+    <t>RG(Grand village) cobertura com 3 quartos</t>
+  </si>
+  <si>
+    <t>Aluguel - Rio 2 Lps</t>
+  </si>
+  <si>
+    <t>Rua Germiniano de Goies /Apartamento com 3 dormitórios para alugar, 143 m² por R$ 3.500/mê</t>
+  </si>
+  <si>
+    <t>Apartamento Freguesia cobertura 2/3 quartos</t>
+  </si>
+  <si>
+    <t>Freguesia, Estr do Bananal, Cond Village Florença, cobertura duplex 3 quartos com total la</t>
+  </si>
+  <si>
+    <t>RG( Village Florença) Alugo ou vendo cobertura na Freguesia</t>
+  </si>
+  <si>
+    <t>Apartamento com 3 dormitórios para alugar, 190 m² por R$ 3.500,00/mês - Freguesia (Jacarep</t>
+  </si>
+  <si>
+    <t>Cobertura Duplex para Locação em Rio de Janeiro, Freguesia (Jacarepaguá), 3 dormitórios, 2</t>
+  </si>
+  <si>
+    <t>LOCAÇÃO - Cidade Jardim - Reserva Jardim - varandão, 3qtos,</t>
+  </si>
+  <si>
     <t>Excelente Cobertura 4 qts na Freguesia! DOIS MESES DE DEPÓSITO!!</t>
   </si>
   <si>
+    <t>ME. Alugo Cobertura de Duplex de 3 qts c/ 2 Vgas na Barra!!!</t>
+  </si>
+  <si>
     <t>ME. Alugo Cobertura 4 qts, 3 Suítes c/ 187m² na Freguesia!!!!</t>
   </si>
   <si>
@@ -79,15 +232,138 @@
     <t>Rio de Janeiro, Jacarepaguá</t>
   </si>
   <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/lindo-2q-escritorio-montado-melhor-ponto-freguesia-891054096</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-com-3-dormitorios-para-alugar-88-m-por-r-1-700-00-mes-freguesia-jacarepa-824993692</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/lindo-ape-3-qts-com-1-suite-freguesia-879547988</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-freguesia-jacarepagua-r-1-750-00-722841201</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-barra-da-tijuca-r-1-800-00-891351951</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/beach-plus-apartamento-de-3-quartos-com-suite-proximo-transolimpica-real-imoveis-rj-822331846</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/cobertura-freguesia-858572853</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-para-alugar-com-3-dormitorios-cod-frap30081-806310575</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-para-alugar-com-3-dormitorios-em-jacarepagua-cod-lc0183101-845803718</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/excelente-apartamento-na-freguesia-jacarepagua-837080205</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/alugo-apartamento-freguesia-899342994</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-para-alugar-com-3-dormitorios-cod-al376-896639886</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/404-3-estrelas-full-condominium-lindo-3-quartos-896341310</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/freguesia-lindo-3-quartos-mobiliado-com-garagem-perto-de-tudo-887708670</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-para-alugar-com-3-dormitorios-em-jacarepagua-rio-de-janeiro-cod-4159-884047617</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/excelente-apt-03-quartos-01-suite-freguesia-634868811</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/aluguel-apartamento-com-3-quartos-em-jacarepagua-892550725</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-de-3-quartos-na-freguesia-882814696</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-de-3-quartos-mobiliado-na-freguesia-766121275</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/rio2-vista-lagoa-e-lazer-3qtos-armarios-planejados-andar-alto-892163418</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-para-alugar-com-3-dormitorios-cod-al1309-897134633</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-jacarepagua-villas-da-barra-3-quartos-nbi-006-app-860199197</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-para-alugar-com-3-dormitorios-em-jacarepagua-rio-de-janeiro-cod-8084-891981750</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/barra-da-tijuca-r-2-300-00-885715690</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/locacao-3-quartos-rjzcyrela-like-871656877</t>
+  </si>
+  <si>
     <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-4-quartos-na-freguesia-jacarepagua-rua-araguaia-886370392</t>
   </si>
   <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-para-aluguel-e-venda-na-rua-potiguara-freguesia-883314464</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/ape-3-quartos-com-1-suite-e-varanda-na-freguesia-84m-883252174</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/rio-2-genova-800773986</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/raridade-aroazes-sol-da-manha-vista-parque-olimpico-898507379</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-barra-da-tijuca-r-2-500-00-898353409</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-para-alugar-com-3-dormitorios-em-jacarepagua-rio-de-janeiro-cod-mia3ap15256-873880211</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-para-alugar-com-3-dormitorios-cod-rlap30311-889150920</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/excelente-oportunidade-no-village-vert-02-quartos-877573304</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/ressi-union-home-3qts-97m-aluguel-e-venda-na-barra-784774525</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-3-suites-freguesia-894885507</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-para-alugar-105-m-por-r-2-800-00-freguesia-jacarepagua-rio-de-janeiro-812167145</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-para-locacao-em-rio-de-janeiro-barra-da-tijuca-3-dormitorios-1-suite-2-ban-788825439</t>
+  </si>
+  <si>
     <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-para-alugar-com-4-dormitorios-cod-33283-872015454</t>
   </si>
   <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/locacao-de-apartamento-mobiliado-899624068</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/cobertura-duplex-para-locacao-via-flamboyant-887725482</t>
+  </si>
+  <si>
     <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/freguesia-lindo-apartamento-4-quartos-oportunidade-unica-881306477</t>
   </si>
   <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/rg-alugo-ou-vendo-linda-cobertura-com-3-quartos-771069465</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/vendo-ou-alugo-apartamento-no-estrelas-full-886524438</t>
+  </si>
+  <si>
     <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/rg-alugo-ou-vendo-lindo-cobertura-com-4-quartos-771072160</t>
   </si>
   <si>
@@ -100,7 +376,37 @@
     <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-780770954</t>
   </si>
   <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/rg-grand-village-cobertura-com-3-quartos-856415396</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/aluguel-rio-2-lps-899211108</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/rua-germiniano-de-goies-apartamento-com-3-dormitorios-para-alugar-143-m-por-r-3-500-me-887520408</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-freguesia-cobertura-2-3-quartos-815380931</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/freguesia-estr-do-bananal-cond-village-florenca-cobertura-duplex-3-quartos-com-total-la-780770871</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/rg-village-florenca-alugo-ou-vendo-cobertura-na-freguesia-771188528</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-com-3-dormitorios-para-alugar-190-m-por-r-3-500-00-mes-freguesia-jacarep-558973348</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/cobertura-duplex-para-locacao-em-rio-de-janeiro-freguesia-jacarepagua-3-dormitorios-2-901173128</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/locacao-cidade-jardim-reserva-jardim-varandao-3qtos-881245039</t>
+  </si>
+  <si>
     <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/excelente-cobertura-4-qts-na-freguesia-dois-meses-de-deposito-878196023</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/me-alugo-cobertura-de-duplex-de-3-qts-c-2-vgas-na-barra-761530022</t>
   </si>
   <si>
     <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/me-alugo-cobertura-4-qts-3-suites-c-187m-na-freguesia-714368468</t>
@@ -495,7 +801,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -520,10 +826,10 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -534,10 +840,10 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -548,10 +854,10 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -562,10 +868,10 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -576,10 +882,10 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -590,10 +896,10 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -604,10 +910,10 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -618,10 +924,10 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>28</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -632,10 +938,10 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -646,10 +952,10 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -660,10 +966,10 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>31</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -674,10 +980,10 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -688,10 +994,10 @@
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>33</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -702,10 +1008,10 @@
         <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>34</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -716,10 +1022,10 @@
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>35</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -730,10 +1036,724 @@
         <v>18</v>
       </c>
       <c r="C17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="C18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" t="s">
+        <v>71</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" t="s">
+        <v>71</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" t="s">
+        <v>70</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
         <v>36</v>
+      </c>
+      <c r="C35" t="s">
+        <v>70</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" t="s">
+        <v>71</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" t="s">
+        <v>70</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" t="s">
+        <v>70</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" t="s">
+        <v>71</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" t="s">
+        <v>70</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41" t="s">
+        <v>71</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" t="s">
+        <v>71</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" t="s">
+        <v>70</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" t="s">
+        <v>70</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" t="s">
+        <v>70</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" t="s">
+        <v>70</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47" t="s">
+        <v>70</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>49</v>
+      </c>
+      <c r="C48" t="s">
+        <v>70</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>50</v>
+      </c>
+      <c r="C49" t="s">
+        <v>70</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>51</v>
+      </c>
+      <c r="C50" t="s">
+        <v>71</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51" t="s">
+        <v>71</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>53</v>
+      </c>
+      <c r="C52" t="s">
+        <v>70</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>55</v>
+      </c>
+      <c r="C54" t="s">
+        <v>70</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>56</v>
+      </c>
+      <c r="C55" t="s">
+        <v>70</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>57</v>
+      </c>
+      <c r="C56" t="s">
+        <v>70</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>58</v>
+      </c>
+      <c r="C57" t="s">
+        <v>70</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>59</v>
+      </c>
+      <c r="C58" t="s">
+        <v>71</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>60</v>
+      </c>
+      <c r="C59" t="s">
+        <v>70</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>61</v>
+      </c>
+      <c r="C60" t="s">
+        <v>71</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>62</v>
+      </c>
+      <c r="C61" t="s">
+        <v>70</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>63</v>
+      </c>
+      <c r="C62" t="s">
+        <v>70</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>64</v>
+      </c>
+      <c r="C63" t="s">
+        <v>71</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>65</v>
+      </c>
+      <c r="C64" t="s">
+        <v>70</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>66</v>
+      </c>
+      <c r="C65" t="s">
+        <v>70</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>67</v>
+      </c>
+      <c r="C66" t="s">
+        <v>70</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>68</v>
+      </c>
+      <c r="C67" t="s">
+        <v>70</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>69</v>
+      </c>
+      <c r="C68" t="s">
+        <v>70</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -754,6 +1774,57 @@
     <hyperlink ref="D15" r:id="rId14"/>
     <hyperlink ref="D16" r:id="rId15"/>
     <hyperlink ref="D17" r:id="rId16"/>
+    <hyperlink ref="D18" r:id="rId17"/>
+    <hyperlink ref="D19" r:id="rId18"/>
+    <hyperlink ref="D20" r:id="rId19"/>
+    <hyperlink ref="D21" r:id="rId20"/>
+    <hyperlink ref="D22" r:id="rId21"/>
+    <hyperlink ref="D23" r:id="rId22"/>
+    <hyperlink ref="D24" r:id="rId23"/>
+    <hyperlink ref="D25" r:id="rId24"/>
+    <hyperlink ref="D26" r:id="rId25"/>
+    <hyperlink ref="D27" r:id="rId26"/>
+    <hyperlink ref="D28" r:id="rId27"/>
+    <hyperlink ref="D29" r:id="rId28"/>
+    <hyperlink ref="D30" r:id="rId29"/>
+    <hyperlink ref="D31" r:id="rId30"/>
+    <hyperlink ref="D32" r:id="rId31"/>
+    <hyperlink ref="D33" r:id="rId32"/>
+    <hyperlink ref="D34" r:id="rId33"/>
+    <hyperlink ref="D35" r:id="rId34"/>
+    <hyperlink ref="D36" r:id="rId35"/>
+    <hyperlink ref="D37" r:id="rId36"/>
+    <hyperlink ref="D38" r:id="rId37"/>
+    <hyperlink ref="D39" r:id="rId38"/>
+    <hyperlink ref="D40" r:id="rId39"/>
+    <hyperlink ref="D41" r:id="rId40"/>
+    <hyperlink ref="D42" r:id="rId41"/>
+    <hyperlink ref="D43" r:id="rId42"/>
+    <hyperlink ref="D44" r:id="rId43"/>
+    <hyperlink ref="D45" r:id="rId44"/>
+    <hyperlink ref="D46" r:id="rId45"/>
+    <hyperlink ref="D47" r:id="rId46"/>
+    <hyperlink ref="D48" r:id="rId47"/>
+    <hyperlink ref="D49" r:id="rId48"/>
+    <hyperlink ref="D50" r:id="rId49"/>
+    <hyperlink ref="D51" r:id="rId50"/>
+    <hyperlink ref="D52" r:id="rId51"/>
+    <hyperlink ref="D53" r:id="rId52"/>
+    <hyperlink ref="D54" r:id="rId53"/>
+    <hyperlink ref="D55" r:id="rId54"/>
+    <hyperlink ref="D56" r:id="rId55"/>
+    <hyperlink ref="D57" r:id="rId56"/>
+    <hyperlink ref="D58" r:id="rId57"/>
+    <hyperlink ref="D59" r:id="rId58"/>
+    <hyperlink ref="D60" r:id="rId59"/>
+    <hyperlink ref="D61" r:id="rId60"/>
+    <hyperlink ref="D62" r:id="rId61"/>
+    <hyperlink ref="D63" r:id="rId62"/>
+    <hyperlink ref="D64" r:id="rId63"/>
+    <hyperlink ref="D65" r:id="rId64"/>
+    <hyperlink ref="D66" r:id="rId65"/>
+    <hyperlink ref="D67" r:id="rId66"/>
+    <hyperlink ref="D68" r:id="rId67"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
